--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.2386</v>
+        <v>-12.57160000000001</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1385</v>
+        <v>-22.0717</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.1613</v>
+        <v>16.0856</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.34270000000001</v>
+        <v>17.31620000000001</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.8357</v>
+        <v>-21.72070000000001</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.86699999999999</v>
+        <v>-21.78720000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.582</v>
+        <v>-11.4856</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.98009999999998</v>
+        <v>-20.41609999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.54109999999998</v>
+        <v>-20.64139999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,35 +842,35 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.4724</v>
+        <v>-12.69529999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.4689</v>
+        <v>16.5429</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.96679999999999</v>
+        <v>-21.92889999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.0887</v>
+        <v>-12.9085</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.68480000000002</v>
+        <v>16.69750000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.12269999999997</v>
+        <v>-21.10629999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.91849999999999</v>
+        <v>-12.4343</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.87629999999999</v>
+        <v>-21.01189999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.16389999999999</v>
+        <v>-13.3694</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.3503</v>
+        <v>-13.2584</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.76950000000001</v>
+        <v>-12.98470000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.01299999999999</v>
+        <v>-20.14309999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.73149999999999</v>
+        <v>16.5642</v>
       </c>
     </row>
     <row r="42">
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.54549999999999</v>
+        <v>-13.02839999999999</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.36629999999999</v>
+        <v>-11.4576</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.376</v>
+        <v>16.2797</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.4419</v>
+        <v>-11.3613</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.25989999999999</v>
+        <v>-11.16079999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.00379999999999</v>
+        <v>-21.91569999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.72180000000002</v>
+        <v>16.71860000000002</v>
       </c>
     </row>
     <row r="54">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.82989999999999</v>
+        <v>-13.9257</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,30 +1386,30 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.9802</v>
+        <v>-12.82879999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>15.87420000000001</v>
+        <v>16.1237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.99679999999999</v>
+        <v>-22.01719999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.24489999999999</v>
+        <v>-12.91919999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.4951</v>
+        <v>16.622</v>
       </c>
     </row>
     <row r="58">
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.20410000000001</v>
+        <v>16.24620000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.06419999999999</v>
+        <v>-22.0722</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.6644</v>
+        <v>-13.45219999999999</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.52590000000001</v>
+        <v>16.5325</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.38090000000002</v>
+        <v>17.35680000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1528,12 +1528,12 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.3623</v>
+        <v>17.3659</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.83689999999999</v>
+        <v>-21.86889999999999</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63039999999999</v>
+        <v>-21.60649999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.29120000000001</v>
+        <v>17.24350000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.9702</v>
+        <v>16.9466</v>
       </c>
     </row>
     <row r="73">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.04480000000001</v>
+        <v>-12.68800000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.8217</v>
+        <v>-12.1871</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.3398</v>
+        <v>-20.5804</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.86519999999999</v>
+        <v>-21.889</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.535</v>
+        <v>16.5192</v>
       </c>
     </row>
     <row r="87">
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.37410000000001</v>
+        <v>-10.2077</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.42490000000002</v>
+        <v>17.37950000000003</v>
       </c>
     </row>
     <row r="90">
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.5865</v>
+        <v>-12.8012</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.5673</v>
+        <v>-21.44730000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.70949999999999</v>
+        <v>-10.59829999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.01709999999999</v>
+        <v>-21.17439999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.88600000000001</v>
+        <v>15.88910000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.002</v>
+        <v>-21.94829999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.506</v>
+        <v>16.3604</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.57079999999998</v>
+        <v>16.48759999999999</v>
       </c>
     </row>
   </sheetData>
